--- a/Code/Results/Cases/Case_7_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.888588372401188</v>
+        <v>0.9572408561427039</v>
       </c>
       <c r="C2">
-        <v>0.2695128049676327</v>
+        <v>0.1490906477515885</v>
       </c>
       <c r="D2">
-        <v>0.0746632294424181</v>
+        <v>0.0764061969860208</v>
       </c>
       <c r="E2">
-        <v>0.04061097147694603</v>
+        <v>0.06410154367301857</v>
       </c>
       <c r="F2">
-        <v>2.310450449735313</v>
+        <v>0.7213018210498561</v>
       </c>
       <c r="G2">
-        <v>0.0008219784641473435</v>
+        <v>0.0008254271118532002</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4293350144414205</v>
+        <v>0.8041335228974162</v>
       </c>
       <c r="L2">
-        <v>0.1476278088320839</v>
+        <v>0.1473971453060088</v>
       </c>
       <c r="M2">
-        <v>0.3367505742817301</v>
+        <v>0.2042365710785958</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.906508917481489</v>
+        <v>2.350437098715503</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.640137720571744</v>
+        <v>0.8321646070639019</v>
       </c>
       <c r="C3">
-        <v>0.2414373315039313</v>
+        <v>0.1493544542412479</v>
       </c>
       <c r="D3">
-        <v>0.0757517680796802</v>
+        <v>0.07179721958588203</v>
       </c>
       <c r="E3">
-        <v>0.04062275779031133</v>
+        <v>0.06331705526901032</v>
       </c>
       <c r="F3">
-        <v>2.117825306031335</v>
+        <v>0.6978833823781301</v>
       </c>
       <c r="G3">
-        <v>0.0008296525461939258</v>
+        <v>0.000829382038805377</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3705648830730581</v>
+        <v>0.7016334996377367</v>
       </c>
       <c r="L3">
-        <v>0.1339821724889063</v>
+        <v>0.1339829869169478</v>
       </c>
       <c r="M3">
-        <v>0.2946721204948588</v>
+        <v>0.1788526156018797</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.760299590055084</v>
+        <v>2.32380971372595</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.489969947428875</v>
+        <v>0.7556848835181711</v>
       </c>
       <c r="C4">
-        <v>0.2242815805652185</v>
+        <v>0.1495537098168427</v>
       </c>
       <c r="D4">
-        <v>0.07645601919227829</v>
+        <v>0.06895200518322753</v>
       </c>
       <c r="E4">
-        <v>0.04065112214911526</v>
+        <v>0.06291860768844515</v>
       </c>
       <c r="F4">
-        <v>2.003251917346716</v>
+        <v>0.6847229574204192</v>
       </c>
       <c r="G4">
-        <v>0.0008344962803244642</v>
+        <v>0.0008318923392039889</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3349539993701285</v>
+        <v>0.638750854526549</v>
       </c>
       <c r="L4">
-        <v>0.1258236218974602</v>
+        <v>0.1259028116831473</v>
       </c>
       <c r="M4">
-        <v>0.2692946509083463</v>
+        <v>0.1633812136811699</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.673549658123349</v>
+        <v>2.311483391331763</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.42930154338498</v>
+        <v>0.7245855276015902</v>
       </c>
       <c r="C5">
-        <v>0.2173034364693507</v>
+        <v>0.1496442112696954</v>
       </c>
       <c r="D5">
-        <v>0.07675154284092045</v>
+        <v>0.06778850753603649</v>
       </c>
       <c r="E5">
-        <v>0.04066777979621961</v>
+        <v>0.06277652283361412</v>
       </c>
       <c r="F5">
-        <v>1.957407041201137</v>
+        <v>0.6796528379966489</v>
       </c>
       <c r="G5">
-        <v>0.0008365045755241612</v>
+        <v>0.0008329362638503186</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.320544631478576</v>
+        <v>0.6131295736949056</v>
       </c>
       <c r="L5">
-        <v>0.1225495112828057</v>
+        <v>0.1226468662506619</v>
       </c>
       <c r="M5">
-        <v>0.2590557536291485</v>
+        <v>0.157102154211902</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.638890235085938</v>
+        <v>2.307431888712841</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.41925736077647</v>
+        <v>0.7194251654339041</v>
       </c>
       <c r="C6">
-        <v>0.2161452873230587</v>
+        <v>0.1496597989514825</v>
       </c>
       <c r="D6">
-        <v>0.07680111641415976</v>
+        <v>0.06759505928720699</v>
       </c>
       <c r="E6">
-        <v>0.04067084780012209</v>
+        <v>0.06275413670238628</v>
       </c>
       <c r="F6">
-        <v>1.94984317282254</v>
+        <v>0.6788282522576878</v>
       </c>
       <c r="G6">
-        <v>0.0008368401671823069</v>
+        <v>0.0008331108822635214</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.318157680413357</v>
+        <v>0.6088751520957913</v>
       </c>
       <c r="L6">
-        <v>0.122008769884026</v>
+        <v>0.1221083709663233</v>
       </c>
       <c r="M6">
-        <v>0.2573614365341435</v>
+        <v>0.1560609831451032</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.633174950112377</v>
+        <v>2.306816686437855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.489149713698481</v>
+        <v>0.7552652132572177</v>
       </c>
       <c r="C7">
-        <v>0.2241874282627236</v>
+        <v>0.1495548927695047</v>
       </c>
       <c r="D7">
-        <v>0.07645997077962363</v>
+        <v>0.06893633050693637</v>
       </c>
       <c r="E7">
-        <v>0.0406513264253654</v>
+        <v>0.06291661017486305</v>
       </c>
       <c r="F7">
-        <v>2.002630325515696</v>
+        <v>0.6846534116876768</v>
       </c>
       <c r="G7">
-        <v>0.0008345232238124889</v>
+        <v>0.0008319063325824549</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3347592765154559</v>
+        <v>0.6384053131404812</v>
       </c>
       <c r="L7">
-        <v>0.125779267365651</v>
+        <v>0.1258587550839465</v>
       </c>
       <c r="M7">
-        <v>0.2691561661749908</v>
+        <v>0.1632964321830528</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.6730795142592</v>
+        <v>2.311424868978463</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.802382534018903</v>
+        <v>0.9140404963345929</v>
       </c>
       <c r="C8">
-        <v>0.2598102846746713</v>
+        <v>0.1491738262369005</v>
       </c>
       <c r="D8">
-        <v>0.07503080230912573</v>
+        <v>0.07482006374251426</v>
       </c>
       <c r="E8">
-        <v>0.04061051656730807</v>
+        <v>0.06381338055124353</v>
       </c>
       <c r="F8">
-        <v>2.243211988365971</v>
+        <v>0.7129658500045721</v>
       </c>
       <c r="G8">
-        <v>0.0008245979337599962</v>
+        <v>0.0008267739740654588</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4089620421832194</v>
+        <v>0.7687747257799629</v>
       </c>
       <c r="L8">
-        <v>0.14287418002462</v>
+        <v>0.1427379954199495</v>
       </c>
       <c r="M8">
-        <v>0.3221386789161755</v>
+        <v>0.1954584946089106</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.85542568879886</v>
+        <v>2.3403962795403</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.439158735437843</v>
+        <v>1.228560816426551</v>
       </c>
       <c r="C9">
-        <v>0.3307161429183765</v>
+        <v>0.1487260008654374</v>
       </c>
       <c r="D9">
-        <v>0.07253739267093096</v>
+        <v>0.08624732711888328</v>
       </c>
       <c r="E9">
-        <v>0.04070869193042004</v>
+        <v>0.06626302551187813</v>
       </c>
       <c r="F9">
-        <v>2.748576637735198</v>
+        <v>0.778803641760085</v>
       </c>
       <c r="G9">
-        <v>0.0008061169067148243</v>
+        <v>0.000817343170011192</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5590791950296605</v>
+        <v>1.025309140484126</v>
       </c>
       <c r="L9">
-        <v>0.1783772302575812</v>
+        <v>0.1771969739012391</v>
       </c>
       <c r="M9">
-        <v>0.4303134684838668</v>
+        <v>0.2595882217726171</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.240376895312636</v>
+        <v>2.431041234218696</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.92636796717693</v>
+        <v>1.462537969726213</v>
       </c>
       <c r="C10">
-        <v>0.3840669011202209</v>
+        <v>0.1485853737895368</v>
       </c>
       <c r="D10">
-        <v>0.07093249091022003</v>
+        <v>0.09459193759301598</v>
       </c>
       <c r="E10">
-        <v>0.04090578190305472</v>
+        <v>0.06852929688017539</v>
       </c>
       <c r="F10">
-        <v>3.146879375781168</v>
+        <v>0.8344226155649181</v>
       </c>
       <c r="G10">
-        <v>0.0007930403157973662</v>
+        <v>0.0008107762823917223</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6734898367587192</v>
+        <v>1.215023036045295</v>
       </c>
       <c r="L10">
-        <v>0.2060314726103343</v>
+        <v>0.2035208676378062</v>
       </c>
       <c r="M10">
-        <v>0.5133820652565788</v>
+        <v>0.3075790881596276</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.545112549705919</v>
+        <v>2.521086831226597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.153650995956468</v>
+        <v>1.569842447164547</v>
       </c>
       <c r="C11">
-        <v>0.4087690072792611</v>
+        <v>0.1485638010912851</v>
       </c>
       <c r="D11">
-        <v>0.07026180476016464</v>
+        <v>0.09838104283157634</v>
       </c>
       <c r="E11">
-        <v>0.04102673339871465</v>
+        <v>0.06967227250399333</v>
       </c>
       <c r="F11">
-        <v>3.335598258866838</v>
+        <v>0.8615266695913562</v>
       </c>
       <c r="G11">
-        <v>0.0007871758432866437</v>
+        <v>0.000807861705265421</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7267669501614265</v>
+        <v>1.301766284760077</v>
       </c>
       <c r="L11">
-        <v>0.2190448016170734</v>
+        <v>0.2157573977594041</v>
       </c>
       <c r="M11">
-        <v>0.5522024152414815</v>
+        <v>0.3296559391866722</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.689826863411668</v>
+        <v>2.567814758967188</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.240665123693702</v>
+        <v>1.610620976980016</v>
       </c>
       <c r="C12">
-        <v>0.4182004496280172</v>
+        <v>0.1485618686213499</v>
       </c>
       <c r="D12">
-        <v>0.07001737518472595</v>
+        <v>0.09981522872037374</v>
       </c>
       <c r="E12">
-        <v>0.04107743191018542</v>
+        <v>0.07012214741591194</v>
       </c>
       <c r="F12">
-        <v>3.408300560092556</v>
+        <v>0.872069813574214</v>
       </c>
       <c r="G12">
-        <v>0.0007849649254478754</v>
+        <v>0.0008067679927876856</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7471503367019494</v>
+        <v>1.334691973725398</v>
       </c>
       <c r="L12">
-        <v>0.2240435623496779</v>
+        <v>0.2204324302529272</v>
       </c>
       <c r="M12">
-        <v>0.5670747288301285</v>
+        <v>0.3380559833305554</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.745627399897515</v>
+        <v>2.586398761101719</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.221880637086997</v>
+        <v>1.601831823803934</v>
       </c>
       <c r="C13">
-        <v>0.4161655207595345</v>
+        <v>0.1485620050609029</v>
       </c>
       <c r="D13">
-        <v>0.07006957539049452</v>
+        <v>0.09950637528683615</v>
       </c>
       <c r="E13">
-        <v>0.04106628844122628</v>
+        <v>0.07002448458076671</v>
       </c>
       <c r="F13">
-        <v>3.392585049844826</v>
+        <v>0.8697863943813928</v>
       </c>
       <c r="G13">
-        <v>0.0007854406878232555</v>
+        <v>0.0008070031077292865</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7427505938738861</v>
+        <v>1.327597131358516</v>
       </c>
       <c r="L13">
-        <v>0.2229636890360212</v>
+        <v>0.2194236787899513</v>
       </c>
       <c r="M13">
-        <v>0.5638636607347323</v>
+        <v>0.3362450250216185</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.733563114588492</v>
+        <v>2.582355816292534</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.160789892117862</v>
+        <v>1.573194302693025</v>
       </c>
       <c r="C14">
-        <v>0.409543295237853</v>
+        <v>0.1485635162633798</v>
       </c>
       <c r="D14">
-        <v>0.07024149782524347</v>
+        <v>0.09849904555791511</v>
       </c>
       <c r="E14">
-        <v>0.04103080380730706</v>
+        <v>0.06970893654820287</v>
       </c>
       <c r="F14">
-        <v>3.341553738724343</v>
+        <v>0.8623883394837435</v>
       </c>
       <c r="G14">
-        <v>0.000786993766589716</v>
+        <v>0.0008077715278536992</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7284395309354537</v>
+        <v>1.304473453206214</v>
       </c>
       <c r="L14">
-        <v>0.2194545790116535</v>
+        <v>0.2161411651925675</v>
       </c>
       <c r="M14">
-        <v>0.5534223798870528</v>
+        <v>0.3303461856378149</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.694396789542651</v>
+        <v>2.5693254968443</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.123497645630721</v>
+        <v>1.555672449783941</v>
       </c>
       <c r="C15">
-        <v>0.4054975377173662</v>
+        <v>0.14856525850049</v>
       </c>
       <c r="D15">
-        <v>0.07034808058308428</v>
+        <v>0.09788195038521508</v>
       </c>
       <c r="E15">
-        <v>0.04100971876886206</v>
+        <v>0.06951790439757488</v>
       </c>
       <c r="F15">
-        <v>3.310461828426753</v>
+        <v>0.857893830621947</v>
       </c>
       <c r="G15">
-        <v>0.0007879462805540267</v>
+        <v>0.0008082434913921756</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7197017441957883</v>
+        <v>1.290320124592455</v>
       </c>
       <c r="L15">
-        <v>0.2173146525988727</v>
+        <v>0.2141360266215315</v>
       </c>
       <c r="M15">
-        <v>0.5470499240949493</v>
+        <v>0.3267383334663805</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.670540522544471</v>
+        <v>2.561461698856931</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.911639307433177</v>
+        <v>1.455544491695377</v>
       </c>
       <c r="C16">
-        <v>0.3824625108953654</v>
+        <v>0.1485876484190456</v>
       </c>
       <c r="D16">
-        <v>0.07097759954234917</v>
+        <v>0.09434419912570746</v>
       </c>
       <c r="E16">
-        <v>0.04089853997531101</v>
+        <v>0.0684569345027235</v>
       </c>
       <c r="F16">
-        <v>3.134710566933165</v>
+        <v>0.8326892718120433</v>
       </c>
       <c r="G16">
-        <v>0.0007934250777754172</v>
+        <v>0.0008109681797529023</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6700354293629474</v>
+        <v>1.20936425228399</v>
       </c>
       <c r="L16">
-        <v>0.2051904515469829</v>
+        <v>0.2027267571401836</v>
       </c>
       <c r="M16">
-        <v>0.5108677758925211</v>
+        <v>0.3061416502196082</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.535787984220519</v>
+        <v>2.518154108917855</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.783208801467993</v>
+        <v>1.394355069753175</v>
       </c>
       <c r="C17">
-        <v>0.3684522011351277</v>
+        <v>0.1486123383722173</v>
       </c>
       <c r="D17">
-        <v>0.07137967114205779</v>
+        <v>0.0921723603603013</v>
       </c>
       <c r="E17">
-        <v>0.04083861795291543</v>
+        <v>0.06783541166127982</v>
       </c>
       <c r="F17">
-        <v>3.028926486403066</v>
+        <v>0.8177027428126991</v>
       </c>
       <c r="G17">
-        <v>0.0007968061571566313</v>
+        <v>0.0008126579811724362</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6399032937636377</v>
+        <v>1.159823438533266</v>
       </c>
       <c r="L17">
-        <v>0.1978694265741581</v>
+        <v>0.1957971081077261</v>
       </c>
       <c r="M17">
-        <v>0.4889513814754665</v>
+        <v>0.2935723920963724</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.45476537263869</v>
+        <v>2.493104448484672</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.709861739283667</v>
+        <v>1.359240868563006</v>
       </c>
       <c r="C18">
-        <v>0.3604335478262755</v>
+        <v>0.1486305210112775</v>
       </c>
       <c r="D18">
-        <v>0.07161645434301178</v>
+        <v>0.09092250570103744</v>
       </c>
       <c r="E18">
-        <v>0.04080707153121654</v>
+        <v>0.06748841357087443</v>
       </c>
       <c r="F18">
-        <v>2.96878059391392</v>
+        <v>0.8092512767765498</v>
       </c>
       <c r="G18">
-        <v>0.0007987589337493322</v>
+        <v>0.0008136367869233496</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6226858723608331</v>
+        <v>1.131369497824551</v>
       </c>
       <c r="L18">
-        <v>0.1936987792139604</v>
+        <v>0.1918357496603704</v>
       </c>
       <c r="M18">
-        <v>0.4764412302653582</v>
+        <v>0.2863656997365354</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.408728100444662</v>
+        <v>2.479235406085166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.685113624789722</v>
+        <v>1.347365016281543</v>
       </c>
       <c r="C19">
-        <v>0.3577249604234396</v>
+        <v>0.1486373571609292</v>
       </c>
       <c r="D19">
-        <v>0.07169754521142835</v>
+        <v>0.09049920170515691</v>
       </c>
       <c r="E19">
-        <v>0.04079688050747698</v>
+        <v>0.067372699096234</v>
       </c>
       <c r="F19">
-        <v>2.948531707320825</v>
+        <v>0.8064180837350676</v>
       </c>
       <c r="G19">
-        <v>0.0007994215612096085</v>
+        <v>0.0008139693891221529</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6168749943215843</v>
+        <v>1.121742037719883</v>
       </c>
       <c r="L19">
-        <v>0.1922933303130776</v>
+        <v>0.1904985826429026</v>
       </c>
       <c r="M19">
-        <v>0.4722212527048768</v>
+        <v>0.2839294175853482</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.393234106550054</v>
+        <v>2.474630375306049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.796825419109609</v>
+        <v>1.400860333700223</v>
       </c>
       <c r="C20">
-        <v>0.3699394099103586</v>
+        <v>0.1486092970334312</v>
       </c>
       <c r="D20">
-        <v>0.0713362915815452</v>
+        <v>0.09240362340922559</v>
       </c>
       <c r="E20">
-        <v>0.04084469191433548</v>
+        <v>0.06790048198758925</v>
       </c>
       <c r="F20">
-        <v>3.040114038411872</v>
+        <v>0.8192805149124922</v>
       </c>
       <c r="G20">
-        <v>0.0007964454159443168</v>
+        <v>0.0008124773906183989</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6430989187360723</v>
+        <v>1.165092837126878</v>
       </c>
       <c r="L20">
-        <v>0.1986445412360212</v>
+        <v>0.1965322305849924</v>
       </c>
       <c r="M20">
-        <v>0.4912743656635428</v>
+        <v>0.2949080170430634</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.463331056588984</v>
+        <v>2.495714836207071</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.178706869549274</v>
+        <v>1.581601744562732</v>
       </c>
       <c r="C21">
-        <v>0.4114861756956429</v>
+        <v>0.1485629019420713</v>
       </c>
       <c r="D21">
-        <v>0.07019073226357975</v>
+        <v>0.09879493806876383</v>
       </c>
       <c r="E21">
-        <v>0.04104109019830293</v>
+        <v>0.06980114995534592</v>
       </c>
       <c r="F21">
-        <v>3.356507922253485</v>
+        <v>0.8645535759140444</v>
       </c>
       <c r="G21">
-        <v>0.000786537342246036</v>
+        <v>0.0008075455575234577</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7326371083546732</v>
+        <v>1.311263203363467</v>
       </c>
       <c r="L21">
-        <v>0.2204832921189279</v>
+        <v>0.2171041667194658</v>
       </c>
       <c r="M21">
-        <v>0.55648437088783</v>
+        <v>0.3320776924171156</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.705872669176898</v>
+        <v>2.573128186329484</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.433882942744049</v>
+        <v>1.700580194924953</v>
       </c>
       <c r="C22">
-        <v>0.4390983833457085</v>
+        <v>0.148569007151039</v>
       </c>
       <c r="D22">
-        <v>0.06949825388363351</v>
+        <v>0.1029683192116408</v>
       </c>
       <c r="E22">
-        <v>0.0411982115292302</v>
+        <v>0.07114323915875786</v>
       </c>
       <c r="F22">
-        <v>3.570595245838263</v>
+        <v>0.895781271156082</v>
       </c>
       <c r="G22">
-        <v>0.0007801178938403815</v>
+        <v>0.0008043802122649112</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7923882974595102</v>
+        <v>1.407255558957047</v>
       </c>
       <c r="L22">
-        <v>0.2351741537470531</v>
+        <v>0.2307918911907905</v>
       </c>
       <c r="M22">
-        <v>0.6001178031129442</v>
+        <v>0.3566059241553532</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.870287756083073</v>
+        <v>2.628935958588642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.297129887991616</v>
+        <v>1.636994076739285</v>
       </c>
       <c r="C23">
-        <v>0.4243137145930405</v>
+        <v>0.1485623657130688</v>
       </c>
       <c r="D23">
-        <v>0.0698623278618129</v>
+        <v>0.1007411324414633</v>
       </c>
       <c r="E23">
-        <v>0.04111157661472742</v>
+        <v>0.07041747216475969</v>
       </c>
       <c r="F23">
-        <v>3.45560780808654</v>
+        <v>0.8789574304251033</v>
       </c>
       <c r="G23">
-        <v>0.0007835397657665785</v>
+        <v>0.0008060644874462301</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7603737235677173</v>
+        <v>1.355975344245621</v>
       </c>
       <c r="L23">
-        <v>0.2272920101507907</v>
+        <v>0.2234629905216963</v>
       </c>
       <c r="M23">
-        <v>0.5767284333232325</v>
+        <v>0.3434915330430925</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.78195117567445</v>
+        <v>2.598652268611488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.790667832036661</v>
+        <v>1.397919104731017</v>
       </c>
       <c r="C24">
-        <v>0.3692669316178581</v>
+        <v>0.148610659611137</v>
       </c>
       <c r="D24">
-        <v>0.07135588602850973</v>
+        <v>0.09229907325772047</v>
       </c>
       <c r="E24">
-        <v>0.04084193686181159</v>
+        <v>0.06787103160775843</v>
       </c>
       <c r="F24">
-        <v>3.035054068351968</v>
+        <v>0.8185666933099753</v>
       </c>
       <c r="G24">
-        <v>0.0007966084790523958</v>
+        <v>0.000812559012786386</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6416538490202726</v>
+        <v>1.162710456717832</v>
       </c>
       <c r="L24">
-        <v>0.1982939932148042</v>
+        <v>0.1961998116295547</v>
       </c>
       <c r="M24">
-        <v>0.4902238663077512</v>
+        <v>0.2943041204889312</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.459456826596991</v>
+        <v>2.494533026283733</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.263935912192039</v>
+        <v>1.143039807235596</v>
       </c>
       <c r="C25">
-        <v>0.3113624291994483</v>
+        <v>0.1488145293045022</v>
       </c>
       <c r="D25">
-        <v>0.07317514567178307</v>
+        <v>0.08316617105933943</v>
       </c>
       <c r="E25">
-        <v>0.04066147382960761</v>
+        <v>0.06552184149602169</v>
       </c>
       <c r="F25">
-        <v>2.607632047097283</v>
+        <v>0.7597929555545804</v>
       </c>
       <c r="G25">
-        <v>0.0008110208385359049</v>
+        <v>0.0008198290500799262</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5178484258611249</v>
+        <v>0.9557460257267962</v>
       </c>
       <c r="L25">
-        <v>0.1685254685227449</v>
+        <v>0.1677116835273367</v>
       </c>
       <c r="M25">
-        <v>0.4004959331370728</v>
+        <v>0.2421032519865172</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.132799976392278</v>
+        <v>2.402616863556091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9572408561427039</v>
+        <v>0.9521435717715576</v>
       </c>
       <c r="C2">
-        <v>0.1490906477515885</v>
+        <v>0.1585815948543257</v>
       </c>
       <c r="D2">
-        <v>0.0764061969860208</v>
+        <v>0.09005256676909568</v>
       </c>
       <c r="E2">
-        <v>0.06410154367301857</v>
+        <v>0.07057076136423568</v>
       </c>
       <c r="F2">
-        <v>0.7213018210498561</v>
+        <v>0.4082714002679211</v>
       </c>
       <c r="G2">
-        <v>0.0008254271118532002</v>
+        <v>0.3113295343929821</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003133203774120796</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2964976387985629</v>
       </c>
       <c r="K2">
-        <v>0.8041335228974162</v>
+        <v>0.3325108138998303</v>
       </c>
       <c r="L2">
-        <v>0.1473971453060088</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2042365710785958</v>
+        <v>0.8856783881138028</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1736104589806828</v>
       </c>
       <c r="O2">
-        <v>2.350437098715503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2048040774700794</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.22823767401664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8321646070639019</v>
+        <v>0.8299206036116686</v>
       </c>
       <c r="C3">
-        <v>0.1493544542412479</v>
+        <v>0.1540962906809611</v>
       </c>
       <c r="D3">
-        <v>0.07179721958588203</v>
+        <v>0.08059886778815439</v>
       </c>
       <c r="E3">
-        <v>0.06331705526901032</v>
+        <v>0.06751036870137028</v>
       </c>
       <c r="F3">
-        <v>0.6978833823781301</v>
+        <v>0.3958302139591012</v>
       </c>
       <c r="G3">
-        <v>0.000829382038805377</v>
+        <v>0.3074936867087743</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004563605290574646</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2992532912262789</v>
       </c>
       <c r="K3">
-        <v>0.7016334996377367</v>
+        <v>0.3379139909176523</v>
       </c>
       <c r="L3">
-        <v>0.1339829869169478</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1788526156018797</v>
+        <v>0.7801650726558336</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1558961616929224</v>
       </c>
       <c r="O3">
-        <v>2.32380971372595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1787193603236901</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.225589543324588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7556848835181711</v>
+        <v>0.7547687977506143</v>
       </c>
       <c r="C4">
-        <v>0.1495537098168427</v>
+        <v>0.1513224606027919</v>
       </c>
       <c r="D4">
-        <v>0.06895200518322753</v>
+        <v>0.0747693623940151</v>
       </c>
       <c r="E4">
-        <v>0.06291860768844515</v>
+        <v>0.06562276477108675</v>
       </c>
       <c r="F4">
-        <v>0.6847229574204192</v>
+        <v>0.3888113157594333</v>
       </c>
       <c r="G4">
-        <v>0.0008318923392039889</v>
+        <v>0.3056803967989978</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005612920463887838</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3012978220244804</v>
       </c>
       <c r="K4">
-        <v>0.638750854526549</v>
+        <v>0.3416818479515769</v>
       </c>
       <c r="L4">
-        <v>0.1259028116831473</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1633812136811699</v>
+        <v>0.7152155667717608</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1450058368695224</v>
       </c>
       <c r="O4">
-        <v>2.311483391331763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1626926159990596</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.225843224508907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7245855276015902</v>
+        <v>0.7241126553803383</v>
       </c>
       <c r="C5">
-        <v>0.1496442112696954</v>
+        <v>0.1501868826643076</v>
       </c>
       <c r="D5">
-        <v>0.06778850753603649</v>
+        <v>0.07238716117345945</v>
       </c>
       <c r="E5">
-        <v>0.06277652283361412</v>
+        <v>0.06485113567140743</v>
       </c>
       <c r="F5">
-        <v>0.6796528379966489</v>
+        <v>0.386101196377318</v>
       </c>
       <c r="G5">
-        <v>0.0008329362638503186</v>
+        <v>0.305072709797372</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006081764447766952</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3022174658603447</v>
       </c>
       <c r="K5">
-        <v>0.6131295736949056</v>
+        <v>0.3433275285854798</v>
       </c>
       <c r="L5">
-        <v>0.1226468662506619</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.157102154211902</v>
+        <v>0.6887032167555418</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1405635117765769</v>
       </c>
       <c r="O5">
-        <v>2.307431888712841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1561578854090051</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.226404033436481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7194251654339041</v>
+        <v>0.7190202202090745</v>
       </c>
       <c r="C6">
-        <v>0.1496597989514825</v>
+        <v>0.1499979991270664</v>
       </c>
       <c r="D6">
-        <v>0.06759505928720699</v>
+        <v>0.0719911875406325</v>
       </c>
       <c r="E6">
-        <v>0.06275413670238628</v>
+        <v>0.06472285352579199</v>
       </c>
       <c r="F6">
-        <v>0.6788282522576878</v>
+        <v>0.3856600861894819</v>
       </c>
       <c r="G6">
-        <v>0.0008331108822635214</v>
+        <v>0.3049795869641727</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006162055583940562</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3023753333058892</v>
       </c>
       <c r="K6">
-        <v>0.6088751520957913</v>
+        <v>0.3436073661494881</v>
       </c>
       <c r="L6">
-        <v>0.1221083709663233</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1560609831451032</v>
+        <v>0.6842980466916089</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1398255714089416</v>
       </c>
       <c r="O6">
-        <v>2.306816686437855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1550725457858846</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.226524348555458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7552652132572177</v>
+        <v>0.7543554901336904</v>
       </c>
       <c r="C7">
-        <v>0.1495548927695047</v>
+        <v>0.1513071672291844</v>
       </c>
       <c r="D7">
-        <v>0.06893633050693637</v>
+        <v>0.07473726251831891</v>
       </c>
       <c r="E7">
-        <v>0.06291661017486305</v>
+        <v>0.06561236844668628</v>
       </c>
       <c r="F7">
-        <v>0.6846534116876768</v>
+        <v>0.3887741657159793</v>
       </c>
       <c r="G7">
-        <v>0.0008319063325824549</v>
+        <v>0.3056716764343648</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005619078783054787</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3013098773130665</v>
       </c>
       <c r="K7">
-        <v>0.6384053131404812</v>
+        <v>0.3417035996453919</v>
       </c>
       <c r="L7">
-        <v>0.1258587550839465</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1632964321830528</v>
+        <v>0.7148581984309317</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1449459453335677</v>
       </c>
       <c r="O7">
-        <v>2.311424868978463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1626045026473797</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.225848955353626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9140404963345929</v>
+        <v>0.9100203971160283</v>
       </c>
       <c r="C8">
-        <v>0.1491738262369005</v>
+        <v>0.1570390322909248</v>
       </c>
       <c r="D8">
-        <v>0.07482006374251426</v>
+        <v>0.08679786769668851</v>
       </c>
       <c r="E8">
-        <v>0.06381338055124353</v>
+        <v>0.06951713483501365</v>
       </c>
       <c r="F8">
-        <v>0.7129658500045721</v>
+        <v>0.4038494450872037</v>
       </c>
       <c r="G8">
-        <v>0.0008267739740654588</v>
+        <v>0.3098913691519343</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003589825350892528</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2973732850983239</v>
       </c>
       <c r="K8">
-        <v>0.7687747257799629</v>
+        <v>0.3342785484698041</v>
       </c>
       <c r="L8">
-        <v>0.1427379954199495</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1954584946089106</v>
+        <v>0.8493290893097196</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1675047934254508</v>
       </c>
       <c r="O8">
-        <v>2.3403962795403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1958116254446445</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.226925142526198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.228560816426551</v>
+        <v>1.214662345169785</v>
       </c>
       <c r="C9">
-        <v>0.1487260008654374</v>
+        <v>0.1681337121999675</v>
       </c>
       <c r="D9">
-        <v>0.08624732711888328</v>
+        <v>0.1102697448636718</v>
       </c>
       <c r="E9">
-        <v>0.06626302551187813</v>
+        <v>0.07712004034749675</v>
       </c>
       <c r="F9">
-        <v>0.778803641760085</v>
+        <v>0.4386040054925218</v>
       </c>
       <c r="G9">
-        <v>0.000817343170011192</v>
+        <v>0.3227025708208515</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001049632710954707</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2925527533290264</v>
       </c>
       <c r="K9">
-        <v>1.025309140484126</v>
+        <v>0.3234298810502985</v>
       </c>
       <c r="L9">
-        <v>0.1771969739012391</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2595882217726171</v>
+        <v>1.111916821505105</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2116827982499387</v>
       </c>
       <c r="O9">
-        <v>2.431041234218696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2608988970378512</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.24466441754322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.462537969726213</v>
+        <v>1.436934237139127</v>
       </c>
       <c r="C10">
-        <v>0.1485853737895368</v>
+        <v>0.1782995959668199</v>
       </c>
       <c r="D10">
-        <v>0.09459193759301598</v>
+        <v>0.1285742906290039</v>
       </c>
       <c r="E10">
-        <v>0.06852929688017539</v>
+        <v>0.07958637458889228</v>
       </c>
       <c r="F10">
-        <v>0.8344226155649181</v>
+        <v>0.4618998253110433</v>
       </c>
       <c r="G10">
-        <v>0.0008107762823917223</v>
+        <v>0.3297785756094243</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0003981808238844309</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2881347262742935</v>
       </c>
       <c r="K10">
-        <v>1.215023036045295</v>
+        <v>0.3134960966089082</v>
       </c>
       <c r="L10">
-        <v>0.2035208676378062</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3075790881596276</v>
+        <v>1.309978273140075</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2327296823479941</v>
       </c>
       <c r="O10">
-        <v>2.521086831226597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3031856631363397</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.25087190244713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.569842447164547</v>
+        <v>1.524723773935563</v>
       </c>
       <c r="C11">
-        <v>0.1485638010912851</v>
+        <v>0.2040405351172296</v>
       </c>
       <c r="D11">
-        <v>0.09838104283157634</v>
+        <v>0.1473262797221651</v>
       </c>
       <c r="E11">
-        <v>0.06967227250399333</v>
+        <v>0.05957226612343192</v>
       </c>
       <c r="F11">
-        <v>0.8615266695913562</v>
+        <v>0.4238851178910892</v>
       </c>
       <c r="G11">
-        <v>0.000807861705265421</v>
+        <v>0.2881660660199401</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01897751697606509</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2630900993454972</v>
       </c>
       <c r="K11">
-        <v>1.301766284760077</v>
+        <v>0.2735204992114397</v>
       </c>
       <c r="L11">
-        <v>0.2157573977594041</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3296559391866722</v>
+        <v>1.449960612309042</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1547301447703759</v>
       </c>
       <c r="O11">
-        <v>2.567814758967188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2749824091730915</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.110397361467108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.610620976980016</v>
+        <v>1.551643983654202</v>
       </c>
       <c r="C12">
-        <v>0.1485618686213499</v>
+        <v>0.2276675208332506</v>
       </c>
       <c r="D12">
-        <v>0.09981522872037374</v>
+        <v>0.1600128431477401</v>
       </c>
       <c r="E12">
-        <v>0.07012214741591194</v>
+        <v>0.05001163843664713</v>
       </c>
       <c r="F12">
-        <v>0.872069813574214</v>
+        <v>0.3875779176981808</v>
       </c>
       <c r="G12">
-        <v>0.0008067679927876856</v>
+        <v>0.2533774671030997</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05770843104981083</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2436082089380562</v>
       </c>
       <c r="K12">
-        <v>1.334691973725398</v>
+        <v>0.244700225824559</v>
       </c>
       <c r="L12">
-        <v>0.2204324302529272</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3380559833305554</v>
+        <v>1.528998668237165</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1003507657050946</v>
       </c>
       <c r="O12">
-        <v>2.586398761101719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2436855618447353</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9959173676136857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.601831823803934</v>
+        <v>1.532991725317345</v>
       </c>
       <c r="C13">
-        <v>0.1485620050609029</v>
+        <v>0.2506289751348305</v>
       </c>
       <c r="D13">
-        <v>0.09950637528683615</v>
+        <v>0.1686249658054919</v>
       </c>
       <c r="E13">
-        <v>0.07002448458076671</v>
+        <v>0.04778499215205523</v>
       </c>
       <c r="F13">
-        <v>0.8697863943813928</v>
+        <v>0.350272211587459</v>
       </c>
       <c r="G13">
-        <v>0.0008070031077292865</v>
+        <v>0.2215919835355464</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1135670744623667</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2271155961604379</v>
       </c>
       <c r="K13">
-        <v>1.327597131358516</v>
+        <v>0.2225090241798391</v>
       </c>
       <c r="L13">
-        <v>0.2194236787899513</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3362450250216185</v>
+        <v>1.564866304002265</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06106011294355085</v>
       </c>
       <c r="O13">
-        <v>2.582355816292534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2084199213038431</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8939736581067734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.573194302693025</v>
+        <v>1.499332188721382</v>
       </c>
       <c r="C14">
-        <v>0.1485635162633798</v>
+        <v>0.2666676919476316</v>
       </c>
       <c r="D14">
-        <v>0.09849904555791511</v>
+        <v>0.1728164698797201</v>
       </c>
       <c r="E14">
-        <v>0.06970893654820287</v>
+        <v>0.05051976439827932</v>
       </c>
       <c r="F14">
-        <v>0.8623883394837435</v>
+        <v>0.3240097473471266</v>
       </c>
       <c r="G14">
-        <v>0.0008077715278536992</v>
+        <v>0.2010920612810168</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1630166633735115</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2170846605391858</v>
       </c>
       <c r="K14">
-        <v>1.304473453206214</v>
+        <v>0.2103952596655194</v>
       </c>
       <c r="L14">
-        <v>0.2161411651925675</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3303461856378149</v>
+        <v>1.570366347545416</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04267022428297018</v>
       </c>
       <c r="O14">
-        <v>2.5693254968443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1823839588613616</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8294514530151957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.555672449783941</v>
+        <v>1.481456176965025</v>
       </c>
       <c r="C15">
-        <v>0.14856525850049</v>
+        <v>0.2698266013071162</v>
       </c>
       <c r="D15">
-        <v>0.09788195038521508</v>
+        <v>0.1728491333573317</v>
       </c>
       <c r="E15">
-        <v>0.06951790439757488</v>
+        <v>0.0517015773300189</v>
       </c>
       <c r="F15">
-        <v>0.857893830621947</v>
+        <v>0.3173339298049527</v>
       </c>
       <c r="G15">
-        <v>0.0008082434913921756</v>
+        <v>0.196511260467247</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1755761858831733</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2151844236192275</v>
       </c>
       <c r="K15">
-        <v>1.290320124592455</v>
+        <v>0.2084769074576602</v>
       </c>
       <c r="L15">
-        <v>0.2141360266215315</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3267383334663805</v>
+        <v>1.562022712547787</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03937264761490233</v>
       </c>
       <c r="O15">
-        <v>2.561461698856931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1750770831189499</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8157269791834949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.455544491695377</v>
+        <v>1.389549324745872</v>
       </c>
       <c r="C16">
-        <v>0.1485876484190456</v>
+        <v>0.2596895095253018</v>
       </c>
       <c r="D16">
-        <v>0.09434419912570746</v>
+        <v>0.1628541948604862</v>
       </c>
       <c r="E16">
-        <v>0.0684569345027235</v>
+        <v>0.05098021407892794</v>
       </c>
       <c r="F16">
-        <v>0.8326892718120433</v>
+        <v>0.3146449027891407</v>
       </c>
       <c r="G16">
-        <v>0.0008109681797529023</v>
+        <v>0.1995737364505459</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1631346977464716</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2201062364577737</v>
       </c>
       <c r="K16">
-        <v>1.20936425228399</v>
+        <v>0.2166842147992796</v>
       </c>
       <c r="L16">
-        <v>0.2027267571401836</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3061416502196082</v>
+        <v>1.467577908515636</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03940413170280799</v>
       </c>
       <c r="O16">
-        <v>2.518154108917855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1650903139195989</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8323330068603525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.394355069753175</v>
+        <v>1.33709264384504</v>
       </c>
       <c r="C17">
-        <v>0.1486123383722173</v>
+        <v>0.2432830350055895</v>
       </c>
       <c r="D17">
-        <v>0.0921723603603013</v>
+        <v>0.1529841800269622</v>
       </c>
       <c r="E17">
-        <v>0.06783541166127982</v>
+        <v>0.04831716687513232</v>
       </c>
       <c r="F17">
-        <v>0.8177027428126991</v>
+        <v>0.3265690977113138</v>
       </c>
       <c r="G17">
-        <v>0.0008126579811724362</v>
+        <v>0.2127686481682787</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1255411143165333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2292365636543181</v>
       </c>
       <c r="K17">
-        <v>1.159823438533266</v>
+        <v>0.2293253227728922</v>
       </c>
       <c r="L17">
-        <v>0.1957971081077261</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2935723920963724</v>
+        <v>1.392492564748466</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04759209828929656</v>
       </c>
       <c r="O17">
-        <v>2.493104448484672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.170944550451253</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8793081463428649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.359240868563006</v>
+        <v>1.31239455392361</v>
       </c>
       <c r="C18">
-        <v>0.1486305210112775</v>
+        <v>0.2214070443184397</v>
       </c>
       <c r="D18">
-        <v>0.09092250570103744</v>
+        <v>0.1423759015889914</v>
       </c>
       <c r="E18">
-        <v>0.06748841357087443</v>
+        <v>0.04748057625709723</v>
       </c>
       <c r="F18">
-        <v>0.8092512767765498</v>
+        <v>0.3528600859888726</v>
       </c>
       <c r="G18">
-        <v>0.0008136367869233496</v>
+        <v>0.2371549685639138</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07274745856043552</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2434228819697353</v>
       </c>
       <c r="K18">
-        <v>1.131369497824551</v>
+        <v>0.2486474584357996</v>
       </c>
       <c r="L18">
-        <v>0.1918357496603704</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2863656997365354</v>
+        <v>1.326407108727182</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07163554845915598</v>
       </c>
       <c r="O18">
-        <v>2.479235406085166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1919734349956492</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9606512490137504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.347365016281543</v>
+        <v>1.311714062894112</v>
       </c>
       <c r="C19">
-        <v>0.1486373571609292</v>
+        <v>0.1991952532356152</v>
       </c>
       <c r="D19">
-        <v>0.09049920170515691</v>
+        <v>0.1323038048698066</v>
       </c>
       <c r="E19">
-        <v>0.067372699096234</v>
+        <v>0.05380074216205077</v>
       </c>
       <c r="F19">
-        <v>0.8064180837350676</v>
+        <v>0.389811203120729</v>
       </c>
       <c r="G19">
-        <v>0.0008139693891221529</v>
+        <v>0.2704989754136307</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02731299669898846</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2613742384201956</v>
       </c>
       <c r="K19">
-        <v>1.121742037719883</v>
+        <v>0.2742109832446857</v>
       </c>
       <c r="L19">
-        <v>0.1904985826429026</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2839294175853482</v>
+        <v>1.273506537243208</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1186483113887462</v>
       </c>
       <c r="O19">
-        <v>2.474630375306049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2252186847239628</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.068919034480018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.400860333700223</v>
+        <v>1.378502013160642</v>
       </c>
       <c r="C20">
-        <v>0.1486092970334312</v>
+        <v>0.1757068907328829</v>
       </c>
       <c r="D20">
-        <v>0.09240362340922559</v>
+        <v>0.1238164043005128</v>
       </c>
       <c r="E20">
-        <v>0.06790048198758925</v>
+        <v>0.07880160527226465</v>
       </c>
       <c r="F20">
-        <v>0.8192805149124922</v>
+        <v>0.4552807638991325</v>
       </c>
       <c r="G20">
-        <v>0.0008124773906183989</v>
+        <v>0.3274627158339669</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0004868738191072808</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2890377623726934</v>
       </c>
       <c r="K20">
-        <v>1.165092837126878</v>
+        <v>0.3157343621433633</v>
       </c>
       <c r="L20">
-        <v>0.1965322305849924</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2949080170430634</v>
+        <v>1.258202495439519</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2267183358211895</v>
       </c>
       <c r="O20">
-        <v>2.495714836207071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2918506375377063</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.247735208686009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.581601744562732</v>
+        <v>1.551501307227653</v>
       </c>
       <c r="C21">
-        <v>0.1485629019420713</v>
+        <v>0.1802810650879394</v>
       </c>
       <c r="D21">
-        <v>0.09879493806876383</v>
+        <v>0.1360836975241995</v>
       </c>
       <c r="E21">
-        <v>0.06980114995534592</v>
+        <v>0.0855061301425355</v>
       </c>
       <c r="F21">
-        <v>0.8645535759140444</v>
+        <v>0.4833720229998093</v>
       </c>
       <c r="G21">
-        <v>0.0008075455575234577</v>
+        <v>0.3424052211334541</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.593487979412167E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2906197480259465</v>
       </c>
       <c r="K21">
-        <v>1.311263203363467</v>
+        <v>0.3158080451002085</v>
       </c>
       <c r="L21">
-        <v>0.2171041667194658</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3320776924171156</v>
+        <v>1.401626187373893</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2606044593708106</v>
       </c>
       <c r="O21">
-        <v>2.573128186329484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3329818778879314</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.283069380237137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.700580194924953</v>
+        <v>1.663906522449764</v>
       </c>
       <c r="C22">
-        <v>0.148569007151039</v>
+        <v>0.1843164692844326</v>
       </c>
       <c r="D22">
-        <v>0.1029683192116408</v>
+        <v>0.1446739823490617</v>
       </c>
       <c r="E22">
-        <v>0.07114323915875786</v>
+        <v>0.08830515024696872</v>
       </c>
       <c r="F22">
-        <v>0.895781271156082</v>
+        <v>0.4995532927779891</v>
       </c>
       <c r="G22">
-        <v>0.0008043802122649112</v>
+        <v>0.3500722769871132</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.646620807156275E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2906259239816436</v>
       </c>
       <c r="K22">
-        <v>1.407255558957047</v>
+        <v>0.3141089837210949</v>
       </c>
       <c r="L22">
-        <v>0.2307918911907905</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3566059241553532</v>
+        <v>1.498192358739942</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2769507441658163</v>
       </c>
       <c r="O22">
-        <v>2.628935958588642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3570583832568985</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.29955359540304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.636994076739285</v>
+        <v>1.603900783539586</v>
       </c>
       <c r="C23">
-        <v>0.1485623657130688</v>
+        <v>0.1821631357264124</v>
       </c>
       <c r="D23">
-        <v>0.1007411324414633</v>
+        <v>0.1400895008319338</v>
       </c>
       <c r="E23">
-        <v>0.07041747216475969</v>
+        <v>0.08681078444879375</v>
       </c>
       <c r="F23">
-        <v>0.8789574304251033</v>
+        <v>0.4908433648987014</v>
       </c>
       <c r="G23">
-        <v>0.0008060644874462301</v>
+        <v>0.3459159692038654</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.157752562354403E-08</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2905853494160908</v>
       </c>
       <c r="K23">
-        <v>1.355975344245621</v>
+        <v>0.3149675052068979</v>
       </c>
       <c r="L23">
-        <v>0.2234629905216963</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3434915330430925</v>
+        <v>1.446648154254092</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2682231750717818</v>
       </c>
       <c r="O23">
-        <v>2.598652268611488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3442042829796392</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.290541941358697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.397919104731017</v>
+        <v>1.37688222241826</v>
       </c>
       <c r="C24">
-        <v>0.148610659611137</v>
+        <v>0.1739957284254885</v>
       </c>
       <c r="D24">
-        <v>0.09229907325772047</v>
+        <v>0.1227164503891345</v>
       </c>
       <c r="E24">
-        <v>0.06787103160775843</v>
+        <v>0.08115931969537904</v>
       </c>
       <c r="F24">
-        <v>0.8185666933099753</v>
+        <v>0.4594270972579722</v>
       </c>
       <c r="G24">
-        <v>0.000812559012786386</v>
+        <v>0.3315447335438932</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0003423907600970111</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2912325951088519</v>
       </c>
       <c r="K24">
-        <v>1.162710456717832</v>
+        <v>0.3192557523238371</v>
       </c>
       <c r="L24">
-        <v>0.1961998116295547</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2943041204889312</v>
+        <v>1.251508022319911</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2352320454903065</v>
       </c>
       <c r="O24">
-        <v>2.494533026283733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2956004331607573</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.260981025602035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.143039807235596</v>
+        <v>1.132278984674826</v>
       </c>
       <c r="C25">
-        <v>0.1488145293045022</v>
+        <v>0.1651460463485535</v>
       </c>
       <c r="D25">
-        <v>0.08316617105933943</v>
+        <v>0.1039362681989644</v>
       </c>
       <c r="E25">
-        <v>0.06552184149602169</v>
+        <v>0.07506710977031084</v>
       </c>
       <c r="F25">
-        <v>0.7597929555545804</v>
+        <v>0.4286063846352022</v>
       </c>
       <c r="G25">
-        <v>0.0008198290500799262</v>
+        <v>0.3187167496854926</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001570930685476424</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2935316827597916</v>
       </c>
       <c r="K25">
-        <v>0.9557460257267962</v>
+        <v>0.3259472417993052</v>
       </c>
       <c r="L25">
-        <v>0.1677116835273367</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2421032519865172</v>
+        <v>1.040968641955715</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1997305111153977</v>
       </c>
       <c r="O25">
-        <v>2.402616863556091</v>
+        <v>0.2432863259896472</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.238088346398015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9521435717715576</v>
+        <v>0.9440398794973248</v>
       </c>
       <c r="C2">
-        <v>0.1585815948543257</v>
+        <v>0.1484665141439763</v>
       </c>
       <c r="D2">
-        <v>0.09005256676909568</v>
+        <v>0.09235629572615522</v>
       </c>
       <c r="E2">
-        <v>0.07057076136423568</v>
+        <v>0.06721367666738587</v>
       </c>
       <c r="F2">
-        <v>0.4082714002679211</v>
+        <v>0.3839052833704031</v>
       </c>
       <c r="G2">
-        <v>0.3113295343929821</v>
+        <v>0.2710216637553842</v>
       </c>
       <c r="H2">
-        <v>0.003133203774120796</v>
+        <v>0.002470238290987359</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2964976387985629</v>
+        <v>0.3106680794103269</v>
       </c>
       <c r="K2">
-        <v>0.3325108138998303</v>
+        <v>0.3021623258533914</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1508892859848601</v>
       </c>
       <c r="M2">
-        <v>0.8856783881138028</v>
+        <v>0.08199517565088144</v>
       </c>
       <c r="N2">
-        <v>0.1736104589806828</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2048040774700794</v>
+        <v>0.9031268014057332</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1814458651946467</v>
       </c>
       <c r="Q2">
-        <v>1.22823767401664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2042666233415815</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.145284197336707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8299206036116686</v>
+        <v>0.8254615637569884</v>
       </c>
       <c r="C3">
-        <v>0.1540962906809611</v>
+        <v>0.1407158982496881</v>
       </c>
       <c r="D3">
-        <v>0.08059886778815439</v>
+        <v>0.08201711810436052</v>
       </c>
       <c r="E3">
-        <v>0.06751036870137028</v>
+        <v>0.0646612158025679</v>
       </c>
       <c r="F3">
-        <v>0.3958302139591012</v>
+        <v>0.3738917818059946</v>
       </c>
       <c r="G3">
-        <v>0.3074936867087743</v>
+        <v>0.270111389554252</v>
       </c>
       <c r="H3">
-        <v>0.004563605290574646</v>
+        <v>0.003647797040217171</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2992532912262789</v>
+        <v>0.3119104584529708</v>
       </c>
       <c r="K3">
-        <v>0.3379139909176523</v>
+        <v>0.3085832628450795</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1563405692573809</v>
       </c>
       <c r="M3">
-        <v>0.7801650726558336</v>
+        <v>0.08274050644325825</v>
       </c>
       <c r="N3">
-        <v>0.1558961616929224</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1787193603236901</v>
+        <v>0.7941020076504373</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1634953123270435</v>
       </c>
       <c r="Q3">
-        <v>1.225589543324588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1783443713220585</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.148477861921734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7547687977506143</v>
+        <v>0.7524464489176523</v>
       </c>
       <c r="C4">
-        <v>0.1513224606027919</v>
+        <v>0.1359812964548439</v>
       </c>
       <c r="D4">
-        <v>0.0747693623940151</v>
+        <v>0.07565822811818634</v>
       </c>
       <c r="E4">
-        <v>0.06562276477108675</v>
+        <v>0.06308091510918956</v>
       </c>
       <c r="F4">
-        <v>0.3888113157594333</v>
+        <v>0.3682543295166596</v>
       </c>
       <c r="G4">
-        <v>0.3056803967989978</v>
+        <v>0.2700811427677365</v>
       </c>
       <c r="H4">
-        <v>0.005612920463887838</v>
+        <v>0.004516056539772051</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3012978220244804</v>
+        <v>0.3128596187159687</v>
       </c>
       <c r="K4">
-        <v>0.3416818479515769</v>
+        <v>0.3128790308285669</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1598957155159653</v>
       </c>
       <c r="M4">
-        <v>0.7152155667717608</v>
+        <v>0.08376403461334547</v>
       </c>
       <c r="N4">
-        <v>0.1450058368695224</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1626926159990596</v>
+        <v>0.7270459385241566</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.152474357177411</v>
       </c>
       <c r="Q4">
-        <v>1.225843224508907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1624067842736459</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.151980516991628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7241126553803383</v>
+        <v>0.7226366903868211</v>
       </c>
       <c r="C5">
-        <v>0.1501868826643076</v>
+        <v>0.1340576872042831</v>
       </c>
       <c r="D5">
-        <v>0.07238716117345945</v>
+        <v>0.07306389298273785</v>
       </c>
       <c r="E5">
-        <v>0.06485113567140743</v>
+        <v>0.06243341688020365</v>
       </c>
       <c r="F5">
-        <v>0.386101196377318</v>
+        <v>0.3660804407948319</v>
       </c>
       <c r="G5">
-        <v>0.305072709797372</v>
+        <v>0.2701963811738466</v>
       </c>
       <c r="H5">
-        <v>0.006081764447766952</v>
+        <v>0.004904896825663752</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3022174658603447</v>
+        <v>0.3132922583834841</v>
       </c>
       <c r="K5">
-        <v>0.3433275285854798</v>
+        <v>0.3147160462056853</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1613967845528244</v>
       </c>
       <c r="M5">
-        <v>0.6887032167555418</v>
+        <v>0.08432185632730782</v>
       </c>
       <c r="N5">
-        <v>0.1405635117765769</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1561578854090051</v>
+        <v>0.6996883247893777</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1479826053171749</v>
       </c>
       <c r="Q5">
-        <v>1.226404033436481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1559059159092904</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.153782544198009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7190202202090745</v>
+        <v>0.7176833580216737</v>
       </c>
       <c r="C6">
-        <v>0.1499979991270664</v>
+        <v>0.1337386132513885</v>
       </c>
       <c r="D6">
-        <v>0.0719911875406325</v>
+        <v>0.07263291174034947</v>
       </c>
       <c r="E6">
-        <v>0.06472285352579199</v>
+        <v>0.062325681725655</v>
       </c>
       <c r="F6">
-        <v>0.3856600861894819</v>
+        <v>0.3657267780876978</v>
       </c>
       <c r="G6">
-        <v>0.3049795869641727</v>
+        <v>0.2702230672582786</v>
       </c>
       <c r="H6">
-        <v>0.006162055583940562</v>
+        <v>0.004971535245235637</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3023753333058892</v>
+        <v>0.313366838300027</v>
       </c>
       <c r="K6">
-        <v>0.3436073661494881</v>
+        <v>0.3150262346428789</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.161649196165726</v>
       </c>
       <c r="M6">
-        <v>0.6842980466916089</v>
+        <v>0.08442293707705506</v>
       </c>
       <c r="N6">
-        <v>0.1398255714089416</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1550725457858846</v>
+        <v>0.6951436162446498</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1472366926297894</v>
       </c>
       <c r="Q6">
-        <v>1.226524348555458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1548260554400578</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.154104026162543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7543554901336904</v>
+        <v>0.7521470490356137</v>
       </c>
       <c r="C7">
-        <v>0.1513071672291844</v>
+        <v>0.1358500616036267</v>
       </c>
       <c r="D7">
-        <v>0.07473726251831891</v>
+        <v>0.07575712301655102</v>
       </c>
       <c r="E7">
-        <v>0.06561236844668628</v>
+        <v>0.06307704590729735</v>
       </c>
       <c r="F7">
-        <v>0.3887741657159793</v>
+        <v>0.3675493869994071</v>
       </c>
       <c r="G7">
-        <v>0.3056716764343648</v>
+        <v>0.2720716056027896</v>
       </c>
       <c r="H7">
-        <v>0.005619078783054787</v>
+        <v>0.004525069267172444</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3013098773130665</v>
+        <v>0.3097447452179338</v>
       </c>
       <c r="K7">
-        <v>0.3417035996453919</v>
+        <v>0.3125418797070409</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1597289564922946</v>
       </c>
       <c r="M7">
-        <v>0.7148581984309317</v>
+        <v>0.08368461496157042</v>
       </c>
       <c r="N7">
-        <v>0.1449459453335677</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1626045026473797</v>
+        <v>0.7264950217117985</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1523760859555665</v>
       </c>
       <c r="Q7">
-        <v>1.225848955353626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1623246788490782</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.149980623719173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9100203971160283</v>
+        <v>0.9035378916622676</v>
       </c>
       <c r="C8">
-        <v>0.1570390322909248</v>
+        <v>0.1454338320968276</v>
       </c>
       <c r="D8">
-        <v>0.08679786769668851</v>
+        <v>0.0892462604299098</v>
       </c>
       <c r="E8">
-        <v>0.06951713483501365</v>
+        <v>0.06635498548649821</v>
       </c>
       <c r="F8">
-        <v>0.4038494450872037</v>
+        <v>0.3781161764061238</v>
       </c>
       <c r="G8">
-        <v>0.3098913691519343</v>
+        <v>0.2772437597800774</v>
       </c>
       <c r="H8">
-        <v>0.003589825350892528</v>
+        <v>0.002854706700806176</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2973732850983239</v>
+        <v>0.3010005731744485</v>
       </c>
       <c r="K8">
-        <v>0.3342785484698041</v>
+        <v>0.3031315076860963</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1521790770136509</v>
       </c>
       <c r="M8">
-        <v>0.8493290893097196</v>
+        <v>0.08179620398429321</v>
       </c>
       <c r="N8">
-        <v>0.1675047934254508</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1958116254446445</v>
+        <v>0.8649505254174414</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1751321355973587</v>
       </c>
       <c r="Q8">
-        <v>1.226925142526198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1953503786010629</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.13942675115284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.214662345169785</v>
+        <v>1.198569362043997</v>
       </c>
       <c r="C9">
-        <v>0.1681337121999675</v>
+        <v>0.1648179341741951</v>
       </c>
       <c r="D9">
-        <v>0.1102697448636718</v>
+        <v>0.1151462508281895</v>
       </c>
       <c r="E9">
-        <v>0.07712004034749675</v>
+        <v>0.07267198272577424</v>
       </c>
       <c r="F9">
-        <v>0.4386040054925218</v>
+        <v>0.4055809773671797</v>
       </c>
       <c r="G9">
-        <v>0.3227025708208515</v>
+        <v>0.2844911943356649</v>
       </c>
       <c r="H9">
-        <v>0.001049632710954707</v>
+        <v>0.0007861178541080927</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2925527533290264</v>
+        <v>0.2963513868209162</v>
       </c>
       <c r="K9">
-        <v>0.3234298810502985</v>
+        <v>0.2889067687305769</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1397096724837521</v>
       </c>
       <c r="M9">
-        <v>1.111916821505105</v>
+        <v>0.08296692907126157</v>
       </c>
       <c r="N9">
-        <v>0.2116827982499387</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2608988970378512</v>
+        <v>1.136370382098448</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2199397584917051</v>
       </c>
       <c r="Q9">
-        <v>1.24466441754322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2599680715636374</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.138920203119497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.436934237139127</v>
+        <v>1.414314402766365</v>
       </c>
       <c r="C10">
-        <v>0.1782995959668199</v>
+        <v>0.1807882865730335</v>
       </c>
       <c r="D10">
-        <v>0.1285742906290039</v>
+        <v>0.1360740381229419</v>
       </c>
       <c r="E10">
-        <v>0.07958637458889228</v>
+        <v>0.07445742133761613</v>
       </c>
       <c r="F10">
-        <v>0.4618998253110433</v>
+        <v>0.4198904819255276</v>
       </c>
       <c r="G10">
-        <v>0.3297785756094243</v>
+        <v>0.3001447973461424</v>
       </c>
       <c r="H10">
-        <v>0.0003981808238844309</v>
+        <v>0.0003252502401243085</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2881347262742935</v>
+        <v>0.2756728937696806</v>
       </c>
       <c r="K10">
-        <v>0.3134960966089082</v>
+        <v>0.2749732400632361</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1296454639081066</v>
       </c>
       <c r="M10">
-        <v>1.309978273140075</v>
+        <v>0.08452920510167417</v>
       </c>
       <c r="N10">
-        <v>0.2327296823479941</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3031856631363397</v>
+        <v>1.339570105724221</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2410277147210707</v>
       </c>
       <c r="Q10">
-        <v>1.25087190244713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3019066631315326</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.121409321651598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.524723773935563</v>
+        <v>1.504686625509919</v>
       </c>
       <c r="C11">
-        <v>0.2040405351172296</v>
+        <v>0.2085285189148749</v>
       </c>
       <c r="D11">
-        <v>0.1473262797221651</v>
+        <v>0.1570118909004776</v>
       </c>
       <c r="E11">
-        <v>0.05957226612343192</v>
+        <v>0.0561110074472051</v>
       </c>
       <c r="F11">
-        <v>0.4238851178910892</v>
+        <v>0.3787268040659697</v>
       </c>
       <c r="G11">
-        <v>0.2881660660199401</v>
+        <v>0.2876578862364738</v>
       </c>
       <c r="H11">
-        <v>0.01897751697606509</v>
+        <v>0.01891796607188212</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2630900993454972</v>
+        <v>0.2294785254683056</v>
       </c>
       <c r="K11">
-        <v>0.2735204992114397</v>
+        <v>0.238352212217265</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1151690540213863</v>
       </c>
       <c r="M11">
-        <v>1.449960612309042</v>
+        <v>0.07271340504723511</v>
       </c>
       <c r="N11">
-        <v>0.1547301447703759</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2749824091730915</v>
+        <v>1.475928625168535</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.160669783565929</v>
       </c>
       <c r="Q11">
-        <v>1.110397361467108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2739091195295842</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9772166950918262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.551643983654202</v>
+        <v>1.534956402678972</v>
       </c>
       <c r="C12">
-        <v>0.2276675208332506</v>
+        <v>0.2320403770176256</v>
       </c>
       <c r="D12">
-        <v>0.1600128431477401</v>
+        <v>0.1704694688446864</v>
       </c>
       <c r="E12">
-        <v>0.05001163843664713</v>
+        <v>0.04774542436444151</v>
       </c>
       <c r="F12">
-        <v>0.3875779176981808</v>
+        <v>0.3442716272645612</v>
       </c>
       <c r="G12">
-        <v>0.2533774671030997</v>
+        <v>0.266097222365083</v>
       </c>
       <c r="H12">
-        <v>0.05770843104981083</v>
+        <v>0.05764543560641755</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2436082089380562</v>
+        <v>0.2087738136106871</v>
       </c>
       <c r="K12">
-        <v>0.244700225824559</v>
+        <v>0.2143894933629866</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1068713859967065</v>
       </c>
       <c r="M12">
-        <v>1.528998668237165</v>
+        <v>0.06348063667183368</v>
       </c>
       <c r="N12">
-        <v>0.1003507657050946</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2436855618447353</v>
+        <v>1.5511067281235</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1047098241365418</v>
       </c>
       <c r="Q12">
-        <v>0.9959173676136857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2428322632210396</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.872412498991892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.532991725317345</v>
+        <v>1.520113339762503</v>
       </c>
       <c r="C13">
-        <v>0.2506289751348305</v>
+        <v>0.2537303694861777</v>
       </c>
       <c r="D13">
-        <v>0.1686249658054919</v>
+        <v>0.1782369580085685</v>
       </c>
       <c r="E13">
-        <v>0.04778499215205523</v>
+        <v>0.04644114245123188</v>
       </c>
       <c r="F13">
-        <v>0.350272211587459</v>
+        <v>0.3137153462686086</v>
       </c>
       <c r="G13">
-        <v>0.2215919835355464</v>
+        <v>0.2323120535823335</v>
       </c>
       <c r="H13">
-        <v>0.1135670744623667</v>
+        <v>0.1134817997011481</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2271155961604379</v>
+        <v>0.2028975571479492</v>
       </c>
       <c r="K13">
-        <v>0.2225090241798391</v>
+        <v>0.1983305971757883</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1019786030349925</v>
       </c>
       <c r="M13">
-        <v>1.564866304002265</v>
+        <v>0.05607833227270298</v>
       </c>
       <c r="N13">
-        <v>0.06106011294355085</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2084199213038431</v>
+        <v>1.583275722941892</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06434023872709105</v>
       </c>
       <c r="Q13">
-        <v>0.8939736581067734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2077875849829489</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.792439613415965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.499332188721382</v>
+        <v>1.489314017595973</v>
       </c>
       <c r="C14">
-        <v>0.2666676919476316</v>
+        <v>0.2683147725373942</v>
       </c>
       <c r="D14">
-        <v>0.1728164698797201</v>
+        <v>0.1810635583210001</v>
       </c>
       <c r="E14">
-        <v>0.05051976439827932</v>
+        <v>0.04967596056535051</v>
       </c>
       <c r="F14">
-        <v>0.3240097473471266</v>
+        <v>0.2939337338964663</v>
       </c>
       <c r="G14">
-        <v>0.2010920612810168</v>
+        <v>0.2050390660084815</v>
       </c>
       <c r="H14">
-        <v>0.1630166633735115</v>
+        <v>0.1629039135913359</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2170846605391858</v>
+        <v>0.2035482466728382</v>
       </c>
       <c r="K14">
-        <v>0.2103952596655194</v>
+        <v>0.1905638395236373</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09983871941766242</v>
       </c>
       <c r="M14">
-        <v>1.570366347545416</v>
+        <v>0.05191356305545902</v>
       </c>
       <c r="N14">
-        <v>0.04267022428297018</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1823839588613616</v>
+        <v>1.586242520089741</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04542241632439392</v>
       </c>
       <c r="Q14">
-        <v>0.8294514530151957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1818993185273463</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7470062321545612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.481456176965025</v>
+        <v>1.472228142791408</v>
       </c>
       <c r="C15">
-        <v>0.2698266013071162</v>
+        <v>0.2709943775271881</v>
       </c>
       <c r="D15">
-        <v>0.1728491333573317</v>
+        <v>0.1804417852130626</v>
       </c>
       <c r="E15">
-        <v>0.0517015773300189</v>
+        <v>0.05096948553768677</v>
       </c>
       <c r="F15">
-        <v>0.3173339298049527</v>
+        <v>0.2896194079680399</v>
       </c>
       <c r="G15">
-        <v>0.196511260467247</v>
+        <v>0.1967681488640594</v>
       </c>
       <c r="H15">
-        <v>0.1755761858831733</v>
+        <v>0.1754488714788209</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2151844236192275</v>
+        <v>0.2057686051864991</v>
       </c>
       <c r="K15">
-        <v>0.2084769074576602</v>
+        <v>0.1898055951138478</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09972494992676584</v>
       </c>
       <c r="M15">
-        <v>1.562022712547787</v>
+        <v>0.05120193512951232</v>
       </c>
       <c r="N15">
-        <v>0.03937264761490233</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1750770831189499</v>
+        <v>1.577338442160197</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04205210623903533</v>
       </c>
       <c r="Q15">
-        <v>0.8157269791834949</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1746297541205983</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7396655622978727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.389549324745872</v>
+        <v>1.381306155280953</v>
       </c>
       <c r="C16">
-        <v>0.2596895095253018</v>
+        <v>0.2599140682663119</v>
       </c>
       <c r="D16">
-        <v>0.1628541948604862</v>
+        <v>0.1678512723497931</v>
       </c>
       <c r="E16">
-        <v>0.05098021407892794</v>
+        <v>0.05031607665832283</v>
       </c>
       <c r="F16">
-        <v>0.3146449027891407</v>
+        <v>0.2938292323549803</v>
       </c>
       <c r="G16">
-        <v>0.1995737364505459</v>
+        <v>0.1829561663579327</v>
       </c>
       <c r="H16">
-        <v>0.1631346977464716</v>
+        <v>0.1629184385082141</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2201062364577737</v>
+        <v>0.2266815584399886</v>
       </c>
       <c r="K16">
-        <v>0.2166842147992796</v>
+        <v>0.1994292427487441</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1034453955808647</v>
       </c>
       <c r="M16">
-        <v>1.467577908515636</v>
+        <v>0.05346039633790944</v>
       </c>
       <c r="N16">
-        <v>0.03940413170280799</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1650903139195989</v>
+        <v>1.48331570244909</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04246550862003495</v>
       </c>
       <c r="Q16">
-        <v>0.8323330068603525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1646769782792994</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7724159973194133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.33709264384504</v>
+        <v>1.32826449228412</v>
       </c>
       <c r="C17">
-        <v>0.2432830350055895</v>
+        <v>0.2432983794341226</v>
       </c>
       <c r="D17">
-        <v>0.1529841800269622</v>
+        <v>0.1570774050982635</v>
       </c>
       <c r="E17">
-        <v>0.04831716687513232</v>
+        <v>0.04743406158425589</v>
       </c>
       <c r="F17">
-        <v>0.3265690977113138</v>
+        <v>0.3071256972316405</v>
       </c>
       <c r="G17">
-        <v>0.2127686481682787</v>
+        <v>0.1881382798900617</v>
       </c>
       <c r="H17">
-        <v>0.1255411143165333</v>
+        <v>0.1252673845411323</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2292365636543181</v>
+        <v>0.2429522380415179</v>
       </c>
       <c r="K17">
-        <v>0.2293253227728922</v>
+        <v>0.211082811434542</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1078872133429485</v>
       </c>
       <c r="M17">
-        <v>1.392492564748466</v>
+        <v>0.05716304487975421</v>
       </c>
       <c r="N17">
-        <v>0.04759209828929656</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.170944550451253</v>
+        <v>1.409565507645254</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05121653450899188</v>
       </c>
       <c r="Q17">
-        <v>0.8793081463428649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1704918916590294</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8211752777404087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.31239455392361</v>
+        <v>1.301375049398445</v>
       </c>
       <c r="C18">
-        <v>0.2214070443184397</v>
+        <v>0.221793930136073</v>
       </c>
       <c r="D18">
-        <v>0.1423759015889914</v>
+        <v>0.1464702266805773</v>
       </c>
       <c r="E18">
-        <v>0.04748057625709723</v>
+        <v>0.04599326305376661</v>
       </c>
       <c r="F18">
-        <v>0.3528600859888726</v>
+        <v>0.3313672802650061</v>
       </c>
       <c r="G18">
-        <v>0.2371549685639138</v>
+        <v>0.2065612893707964</v>
       </c>
       <c r="H18">
-        <v>0.07274745856043552</v>
+        <v>0.07245820839783335</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2434228819697353</v>
+        <v>0.2591896468766066</v>
       </c>
       <c r="K18">
-        <v>0.2486474584357996</v>
+        <v>0.2274118386152892</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1141159315156859</v>
       </c>
       <c r="M18">
-        <v>1.326407108727182</v>
+        <v>0.06294553783206425</v>
       </c>
       <c r="N18">
-        <v>0.07163554845915598</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1919734349956492</v>
+        <v>1.346066260163752</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.0761944753298387</v>
       </c>
       <c r="Q18">
-        <v>0.9606512490137504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1914006292770942</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8948954325720422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.311714062894112</v>
+        <v>1.297300359079685</v>
       </c>
       <c r="C19">
-        <v>0.1991952532356152</v>
+        <v>0.1999633963716718</v>
       </c>
       <c r="D19">
-        <v>0.1323038048698066</v>
+        <v>0.136893846709242</v>
       </c>
       <c r="E19">
-        <v>0.05380074216205077</v>
+        <v>0.05123103667759388</v>
       </c>
       <c r="F19">
-        <v>0.389811203120729</v>
+        <v>0.3638932306717493</v>
       </c>
       <c r="G19">
-        <v>0.2704989754136307</v>
+        <v>0.2343172303648586</v>
       </c>
       <c r="H19">
-        <v>0.02731299669898846</v>
+        <v>0.02705823620986081</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2613742384201956</v>
+        <v>0.2759235446036143</v>
       </c>
       <c r="K19">
-        <v>0.2742109832446857</v>
+        <v>0.2482090811511348</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1219699814366546</v>
       </c>
       <c r="M19">
-        <v>1.273506537243208</v>
+        <v>0.07071941481034116</v>
       </c>
       <c r="N19">
-        <v>0.1186483113887462</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2252186847239628</v>
+        <v>1.296577352430631</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1245726346936991</v>
       </c>
       <c r="Q19">
-        <v>1.068919034480018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2244500021586937</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9885334557621945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.378502013160642</v>
+        <v>1.357280520706865</v>
       </c>
       <c r="C20">
-        <v>0.1757068907328829</v>
+        <v>0.1770620651624029</v>
       </c>
       <c r="D20">
-        <v>0.1238164043005128</v>
+        <v>0.1301029330279704</v>
       </c>
       <c r="E20">
-        <v>0.07880160527226465</v>
+        <v>0.07383596162913086</v>
       </c>
       <c r="F20">
-        <v>0.4552807638991325</v>
+        <v>0.4180714243902059</v>
       </c>
       <c r="G20">
-        <v>0.3274627158339669</v>
+        <v>0.2882587354226658</v>
       </c>
       <c r="H20">
-        <v>0.0004868738191072808</v>
+        <v>0.0003720308403480921</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2890377623726934</v>
+        <v>0.2906716258671906</v>
       </c>
       <c r="K20">
-        <v>0.3157343621433633</v>
+        <v>0.279507602868847</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1325462481489392</v>
       </c>
       <c r="M20">
-        <v>1.258202495439519</v>
+        <v>0.08436022432756829</v>
       </c>
       <c r="N20">
-        <v>0.2267183358211895</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2918506375377063</v>
+        <v>1.287084860598611</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2351210797104528</v>
       </c>
       <c r="Q20">
-        <v>1.247735208686009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2906515051076326</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.131647845574989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551501307227653</v>
+        <v>1.526294074790826</v>
       </c>
       <c r="C21">
-        <v>0.1802810650879394</v>
+        <v>0.1838717028100234</v>
       </c>
       <c r="D21">
-        <v>0.1360836975241995</v>
+        <v>0.1472713718967071</v>
       </c>
       <c r="E21">
-        <v>0.0855061301425355</v>
+        <v>0.07979027780801573</v>
       </c>
       <c r="F21">
-        <v>0.4833720229998093</v>
+        <v>0.4252112162147625</v>
       </c>
       <c r="G21">
-        <v>0.3424052211334541</v>
+        <v>0.3503141971700074</v>
       </c>
       <c r="H21">
-        <v>1.593487979412167E-05</v>
+        <v>5.50793952225348E-06</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2906197480259465</v>
+        <v>0.234626958048274</v>
       </c>
       <c r="K21">
-        <v>0.3158080451002085</v>
+        <v>0.2686546521493192</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1250430574308385</v>
       </c>
       <c r="M21">
-        <v>1.401626187373893</v>
+        <v>0.08599288963227281</v>
       </c>
       <c r="N21">
-        <v>0.2606044593708106</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3329818778879314</v>
+        <v>1.431666113244631</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2687694886066367</v>
       </c>
       <c r="Q21">
-        <v>1.283069380237137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3315249517612031</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.107135174619032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.663906522449764</v>
+        <v>1.636457188068704</v>
       </c>
       <c r="C22">
-        <v>0.1843164692844326</v>
+        <v>0.1893205140269458</v>
       </c>
       <c r="D22">
-        <v>0.1446739823490617</v>
+        <v>0.1593659174395015</v>
       </c>
       <c r="E22">
-        <v>0.08830515024696872</v>
+        <v>0.08226004109968699</v>
       </c>
       <c r="F22">
-        <v>0.4995532927779891</v>
+        <v>0.4269258245118337</v>
       </c>
       <c r="G22">
-        <v>0.3500722769871132</v>
+        <v>0.3962790926146482</v>
       </c>
       <c r="H22">
-        <v>2.646620807156275E-05</v>
+        <v>3.332433691638492E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2906259239816436</v>
+        <v>0.2048017140191121</v>
       </c>
       <c r="K22">
-        <v>0.3141089837210949</v>
+        <v>0.259756791825847</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1197600127892198</v>
       </c>
       <c r="M22">
-        <v>1.498192358739942</v>
+        <v>0.08651583452270017</v>
       </c>
       <c r="N22">
-        <v>0.2769507441658163</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3570583832568985</v>
+        <v>1.52847959459254</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2847792497268671</v>
       </c>
       <c r="Q22">
-        <v>1.29955359540304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3554440901729095</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.082756053272433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.603900783539586</v>
+        <v>1.577362749201541</v>
       </c>
       <c r="C23">
-        <v>0.1821631357264124</v>
+        <v>0.1866923360920509</v>
       </c>
       <c r="D23">
-        <v>0.1400895008319338</v>
+        <v>0.1525073480759289</v>
       </c>
       <c r="E23">
-        <v>0.08681078444879375</v>
+        <v>0.08091371110240253</v>
       </c>
       <c r="F23">
-        <v>0.4908433648987014</v>
+        <v>0.427704799384891</v>
       </c>
       <c r="G23">
-        <v>0.3459159692038654</v>
+        <v>0.3650228618784013</v>
       </c>
       <c r="H23">
-        <v>8.157752562354403E-08</v>
+        <v>2.249954073274552E-06</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2905853494160908</v>
+        <v>0.2241434322596731</v>
       </c>
       <c r="K23">
-        <v>0.3149675052068979</v>
+        <v>0.2653226751749855</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.122817974974657</v>
       </c>
       <c r="M23">
-        <v>1.446648154254092</v>
+        <v>0.08657525074026395</v>
       </c>
       <c r="N23">
-        <v>0.2682231750717818</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3442042829796392</v>
+        <v>1.477289314580077</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2763257198617879</v>
       </c>
       <c r="Q23">
-        <v>1.290541941358697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3426617089379107</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.100650927920043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.37688222241826</v>
+        <v>1.355336044675056</v>
       </c>
       <c r="C24">
-        <v>0.1739957284254885</v>
+        <v>0.1751855818938282</v>
       </c>
       <c r="D24">
-        <v>0.1227164503891345</v>
+        <v>0.1290051216822974</v>
       </c>
       <c r="E24">
-        <v>0.08115931969537904</v>
+        <v>0.07601250316785801</v>
       </c>
       <c r="F24">
-        <v>0.4594270972579722</v>
+        <v>0.4217888662472191</v>
       </c>
       <c r="G24">
-        <v>0.3315447335438932</v>
+        <v>0.2913866105074376</v>
       </c>
       <c r="H24">
-        <v>0.0003423907600970111</v>
+        <v>0.0002321845455034444</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2912325951088519</v>
+        <v>0.2930521608433949</v>
       </c>
       <c r="K24">
-        <v>0.3192557523238371</v>
+        <v>0.282419497082067</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.133669657657105</v>
       </c>
       <c r="M24">
-        <v>1.251508022319911</v>
+        <v>0.08541221510493457</v>
       </c>
       <c r="N24">
-        <v>0.2352320454903065</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2956004331607573</v>
+        <v>1.280685316626062</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2438409450970624</v>
       </c>
       <c r="Q24">
-        <v>1.260981025602035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2943766091362932</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.143310968319511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.132278984674826</v>
+        <v>1.118737012193748</v>
       </c>
       <c r="C25">
-        <v>0.1651460463485535</v>
+        <v>0.1597038585358845</v>
       </c>
       <c r="D25">
-        <v>0.1039362681989644</v>
+        <v>0.1079452699981047</v>
       </c>
       <c r="E25">
-        <v>0.07506710977031084</v>
+        <v>0.07096209908733897</v>
       </c>
       <c r="F25">
-        <v>0.4286063846352022</v>
+        <v>0.3986067344974984</v>
       </c>
       <c r="G25">
-        <v>0.3187167496854926</v>
+        <v>0.2791467291965475</v>
       </c>
       <c r="H25">
-        <v>0.001570930685476424</v>
+        <v>0.00120260718591203</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2935316827597916</v>
+        <v>0.3016254259194255</v>
       </c>
       <c r="K25">
-        <v>0.3259472417993052</v>
+        <v>0.2929149015386159</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1431061756287697</v>
       </c>
       <c r="M25">
-        <v>1.040968641955715</v>
+        <v>0.0823191599596651</v>
       </c>
       <c r="N25">
-        <v>0.1997305111153977</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2432863259896472</v>
+        <v>1.063260823076206</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.207859463696245</v>
       </c>
       <c r="Q25">
-        <v>1.238088346398015</v>
+        <v>0.2424865286008711</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.140400740637887</v>
       </c>
     </row>
   </sheetData>
